--- a/spliced/struggle/2023-04-11_10-38-26/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-38-26/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-0.6989825367927551</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.0144944190979</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.167210817337036</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6551529765129089</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3874412775039673</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.7050912380218506</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0914770737290382</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1458440721035003</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.3762930035591125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0704022198915481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2157881408929824</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3240640163421631</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0951422601938247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0403171069920063</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1484402567148208</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.0852157026529312</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1014036312699318</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3179553747177124</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0390953756868839</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.052381694316864</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1099557429552078</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0681114718317985</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0522289797663688</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.4196644127368927</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2273945808410644</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0937678143382072</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1565342247486114</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0591012127697467</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0331394411623477</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0291688162833452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
